--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\FBSG_RPA_TEL_AP_KWE_AE\KWE_AE_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\KWE_AE_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB329A5-1A11-407C-87BC-2E65400587AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEDFC46-DE70-4B76-A2B4-B4B017682BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -832,6 +832,12 @@
   </si>
   <si>
     <t>AP_AE_AEFolder</t>
+  </si>
+  <si>
+    <t>OutlookFolder</t>
+  </si>
+  <si>
+    <t>Inbox\</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1308,401 +1314,409 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
+      <c r="A8" t="s">
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" t="s">
-        <v>171</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>123</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>124</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>176</v>
-      </c>
-    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" t="s">
-        <v>183</v>
-      </c>
-    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>239</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>240</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" t="s">
-        <v>194</v>
-      </c>
-    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="13.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
         <v>107</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C39" s="2"/>
-    </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
         <v>120</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>121</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B41" s="2"/>
-    </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" t="s">
-        <v>187</v>
-      </c>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
         <v>138</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A47" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>190</v>
-      </c>
-    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>149</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
         <v>154</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>155</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A53" t="s">
-        <v>248</v>
-      </c>
-      <c r="B53" t="s">
-        <v>250</v>
-      </c>
-    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
         <v>249</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2640,6 +2654,7 @@
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
